--- a/Dokumentation/Statistiken/Genauigkeit/foundpoints-integral-bary-0.xlsx
+++ b/Dokumentation/Statistiken/Genauigkeit/foundpoints-integral-bary-0.xlsx
@@ -550,6 +550,3761 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gemessen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'foundpoints-integral-bary-0'!$B$1:$B$806</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="806"/>
+                <c:pt idx="71">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'foundpoints-integral-bary-0'!$C$1:$C$806</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="806"/>
+                <c:pt idx="71">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>774</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Projiziert</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="2"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'foundpoints-integral-bary-0'!$D:$D</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'foundpoints-integral-bary-0'!$E:$E</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196625536"/>
+        <c:axId val="196578688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196625536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196578688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196578688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="196625536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -837,794 +4592,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C591"/>
+  <dimension ref="A1:E591"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1370356855053</v>
       </c>
-      <c r="B1">
-        <v>699</v>
-      </c>
-      <c r="C1">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1370356855053</v>
       </c>
-      <c r="B2">
-        <v>699</v>
-      </c>
-      <c r="C2">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1370356855781</v>
       </c>
-      <c r="B3">
-        <v>754</v>
-      </c>
-      <c r="C3">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1370356855781</v>
       </c>
-      <c r="B4">
-        <v>754</v>
-      </c>
-      <c r="C4">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1370356855853</v>
       </c>
-      <c r="B5">
-        <v>754</v>
-      </c>
-      <c r="C5">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1370356855853</v>
       </c>
-      <c r="B6">
-        <v>754</v>
-      </c>
-      <c r="C6">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1370356855885</v>
       </c>
-      <c r="B7">
-        <v>754</v>
-      </c>
-      <c r="C7">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1370356855885</v>
       </c>
-      <c r="B8">
-        <v>754</v>
-      </c>
-      <c r="C8">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1370356855917</v>
       </c>
-      <c r="B9">
-        <v>754</v>
-      </c>
-      <c r="C9">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1370356855917</v>
       </c>
-      <c r="B10">
-        <v>754</v>
-      </c>
-      <c r="C10">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1370356855949</v>
       </c>
-      <c r="B11">
-        <v>754</v>
-      </c>
-      <c r="C11">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1370356855949</v>
       </c>
-      <c r="B12">
-        <v>754</v>
-      </c>
-      <c r="C12">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1370356856021</v>
       </c>
-      <c r="B13">
-        <v>754</v>
-      </c>
-      <c r="C13">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1370356856021</v>
       </c>
-      <c r="B14">
-        <v>754</v>
-      </c>
-      <c r="C14">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1370356856053</v>
       </c>
-      <c r="B15">
-        <v>754</v>
-      </c>
-      <c r="C15">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1370356856053</v>
       </c>
-      <c r="B16">
-        <v>754</v>
-      </c>
-      <c r="C16">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1370356856085</v>
       </c>
-      <c r="B17">
-        <v>751</v>
-      </c>
-      <c r="C17">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1370356856085</v>
       </c>
-      <c r="B18">
-        <v>751</v>
-      </c>
-      <c r="C18">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1370356856117</v>
       </c>
-      <c r="B19">
-        <v>751</v>
-      </c>
-      <c r="C19">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>256</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1370356856117</v>
       </c>
-      <c r="B20">
-        <v>751</v>
-      </c>
-      <c r="C20">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>256</v>
+      </c>
+      <c r="E20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1370356856149</v>
       </c>
-      <c r="B21">
-        <v>751</v>
-      </c>
-      <c r="C21">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>256</v>
+      </c>
+      <c r="E21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1370356856149</v>
       </c>
-      <c r="B22">
-        <v>751</v>
-      </c>
-      <c r="C22">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>256</v>
+      </c>
+      <c r="E22">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1370356856181</v>
       </c>
-      <c r="B23">
-        <v>751</v>
-      </c>
-      <c r="C23">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1370356856181</v>
       </c>
-      <c r="B24">
-        <v>751</v>
-      </c>
-      <c r="C24">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>256</v>
+      </c>
+      <c r="E24">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1370356856221</v>
       </c>
-      <c r="B25">
-        <v>751</v>
-      </c>
-      <c r="C25">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="E25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1370356856221</v>
       </c>
-      <c r="B26">
-        <v>751</v>
-      </c>
-      <c r="C26">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>256</v>
+      </c>
+      <c r="E26">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1370356856253</v>
       </c>
-      <c r="B27">
-        <v>751</v>
-      </c>
-      <c r="C27">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>256</v>
+      </c>
+      <c r="E27">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1370356856253</v>
       </c>
-      <c r="B28">
-        <v>751</v>
-      </c>
-      <c r="C28">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>384</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1370356856285</v>
       </c>
-      <c r="B29">
-        <v>751</v>
-      </c>
-      <c r="C29">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>384</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1370356856285</v>
       </c>
-      <c r="B30">
-        <v>751</v>
-      </c>
-      <c r="C30">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>384</v>
+      </c>
+      <c r="E30">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1370356856317</v>
       </c>
-      <c r="B31">
-        <v>748</v>
-      </c>
-      <c r="C31">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>384</v>
+      </c>
+      <c r="E31">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1370356856317</v>
       </c>
-      <c r="B32">
-        <v>748</v>
-      </c>
-      <c r="C32">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>384</v>
+      </c>
+      <c r="E32">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1370356856349</v>
       </c>
-      <c r="B33">
-        <v>748</v>
-      </c>
-      <c r="C33">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>384</v>
+      </c>
+      <c r="E33">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1370356856349</v>
       </c>
-      <c r="B34">
-        <v>748</v>
-      </c>
-      <c r="C34">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>384</v>
+      </c>
+      <c r="E34">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1370356856381</v>
       </c>
-      <c r="B35">
-        <v>748</v>
-      </c>
-      <c r="C35">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>384</v>
+      </c>
+      <c r="E35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1370356856381</v>
       </c>
-      <c r="B36">
-        <v>748</v>
-      </c>
-      <c r="C36">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>384</v>
+      </c>
+      <c r="E36">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1370356856421</v>
       </c>
-      <c r="B37">
-        <v>748</v>
-      </c>
-      <c r="C37">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>512</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1370356856421</v>
       </c>
-      <c r="B38">
-        <v>748</v>
-      </c>
-      <c r="C38">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>512</v>
+      </c>
+      <c r="E38">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1370356856453</v>
       </c>
-      <c r="B39">
-        <v>748</v>
-      </c>
-      <c r="C39">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>512</v>
+      </c>
+      <c r="E39">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1370356856453</v>
       </c>
-      <c r="B40">
-        <v>748</v>
-      </c>
-      <c r="C40">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>512</v>
+      </c>
+      <c r="E40">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1370356856485</v>
       </c>
-      <c r="B41">
-        <v>748</v>
-      </c>
-      <c r="C41">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>512</v>
+      </c>
+      <c r="E41">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1370356856485</v>
       </c>
-      <c r="B42">
-        <v>748</v>
-      </c>
-      <c r="C42">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="E42">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1370356856517</v>
       </c>
-      <c r="B43">
-        <v>748</v>
-      </c>
-      <c r="C43">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>512</v>
+      </c>
+      <c r="E43">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1370356856517</v>
       </c>
-      <c r="B44">
-        <v>748</v>
-      </c>
-      <c r="C44">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>512</v>
+      </c>
+      <c r="E44">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1370356856549</v>
       </c>
-      <c r="B45">
-        <v>748</v>
-      </c>
-      <c r="C45">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>512</v>
+      </c>
+      <c r="E45">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1370356856549</v>
       </c>
-      <c r="B46">
-        <v>748</v>
-      </c>
-      <c r="C46">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>640</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1370356856581</v>
       </c>
-      <c r="B47">
-        <v>748</v>
-      </c>
-      <c r="C47">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>640</v>
+      </c>
+      <c r="E47">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1370356856581</v>
       </c>
-      <c r="B48">
-        <v>748</v>
-      </c>
-      <c r="C48">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>640</v>
+      </c>
+      <c r="E48">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1370356856613</v>
       </c>
-      <c r="B49">
-        <v>748</v>
-      </c>
-      <c r="C49">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>640</v>
+      </c>
+      <c r="E49">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1370356856613</v>
       </c>
-      <c r="B50">
-        <v>748</v>
-      </c>
-      <c r="C50">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>640</v>
+      </c>
+      <c r="E50">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1370356856653</v>
       </c>
-      <c r="B51">
-        <v>745</v>
-      </c>
-      <c r="C51">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>640</v>
+      </c>
+      <c r="E51">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1370356856653</v>
       </c>
-      <c r="B52">
-        <v>745</v>
-      </c>
-      <c r="C52">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>640</v>
+      </c>
+      <c r="E52">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1370356856685</v>
       </c>
-      <c r="B53">
-        <v>745</v>
-      </c>
-      <c r="C53">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>640</v>
+      </c>
+      <c r="E53">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1370356856685</v>
       </c>
-      <c r="B54">
-        <v>745</v>
-      </c>
-      <c r="C54">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>640</v>
+      </c>
+      <c r="E54">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1370356856718</v>
       </c>
-      <c r="B55">
-        <v>742</v>
-      </c>
-      <c r="C55">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>768</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1370356856718</v>
       </c>
-      <c r="B56">
-        <v>742</v>
-      </c>
-      <c r="C56">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>768</v>
+      </c>
+      <c r="E56">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1370356856749</v>
       </c>
-      <c r="B57">
-        <v>741</v>
-      </c>
-      <c r="C57">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>768</v>
+      </c>
+      <c r="E57">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1370356856749</v>
       </c>
-      <c r="B58">
-        <v>736</v>
-      </c>
-      <c r="C58">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>768</v>
+      </c>
+      <c r="E58">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1370356856781</v>
       </c>
-      <c r="B59">
-        <v>735</v>
-      </c>
-      <c r="C59">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>768</v>
+      </c>
+      <c r="E59">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1370356856781</v>
       </c>
-      <c r="B60">
-        <v>730</v>
-      </c>
-      <c r="C60">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>768</v>
+      </c>
+      <c r="E60">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1370356856813</v>
       </c>
-      <c r="B61">
-        <v>728</v>
-      </c>
-      <c r="C61">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>768</v>
+      </c>
+      <c r="E61">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1370356856813</v>
       </c>
-      <c r="B62">
-        <v>732</v>
-      </c>
-      <c r="C62">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>768</v>
+      </c>
+      <c r="E62">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1370356856853</v>
       </c>
-      <c r="B63">
-        <v>716</v>
-      </c>
-      <c r="C63">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>768</v>
+      </c>
+      <c r="E63">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1370356856853</v>
       </c>
-      <c r="B64">
-        <v>721</v>
-      </c>
-      <c r="C64">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>896</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1370356856885</v>
       </c>
-      <c r="B65">
-        <v>707</v>
-      </c>
-      <c r="C65">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>896</v>
+      </c>
+      <c r="E65">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1370356856885</v>
       </c>
-      <c r="B66">
-        <v>707</v>
-      </c>
-      <c r="C66">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>896</v>
+      </c>
+      <c r="E66">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1370356856918</v>
       </c>
-      <c r="B67">
-        <v>694</v>
-      </c>
-      <c r="C67">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>896</v>
+      </c>
+      <c r="E67">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1370356856918</v>
       </c>
-      <c r="B68">
-        <v>694</v>
-      </c>
-      <c r="C68">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>896</v>
+      </c>
+      <c r="E68">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1370356856949</v>
       </c>
-      <c r="B69">
-        <v>695</v>
-      </c>
-      <c r="C69">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>896</v>
+      </c>
+      <c r="E69">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1370356856949</v>
       </c>
-      <c r="B70">
-        <v>676</v>
-      </c>
-      <c r="C70">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>896</v>
+      </c>
+      <c r="E70">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1370356856981</v>
       </c>
-      <c r="B71">
-        <v>703</v>
-      </c>
-      <c r="C71">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>896</v>
+      </c>
+      <c r="E71">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1370356881309</v>
       </c>
@@ -1634,8 +5391,14 @@
       <c r="C72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>896</v>
+      </c>
+      <c r="E72">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1370356881309</v>
       </c>
@@ -1645,8 +5408,14 @@
       <c r="C73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1024</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1370356881341</v>
       </c>
@@ -1656,8 +5425,14 @@
       <c r="C74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1024</v>
+      </c>
+      <c r="E74">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1370356881341</v>
       </c>
@@ -1667,8 +5442,14 @@
       <c r="C75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1024</v>
+      </c>
+      <c r="E75">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1370356881373</v>
       </c>
@@ -1678,8 +5459,14 @@
       <c r="C76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1024</v>
+      </c>
+      <c r="E76">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1370356881373</v>
       </c>
@@ -1689,8 +5476,14 @@
       <c r="C77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1024</v>
+      </c>
+      <c r="E77">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1370356881413</v>
       </c>
@@ -1700,8 +5493,14 @@
       <c r="C78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1024</v>
+      </c>
+      <c r="E78">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1370356881413</v>
       </c>
@@ -1711,8 +5510,14 @@
       <c r="C79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1024</v>
+      </c>
+      <c r="E79">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1370356881445</v>
       </c>
@@ -1722,8 +5527,14 @@
       <c r="C80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1024</v>
+      </c>
+      <c r="E80">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1370356881445</v>
       </c>
@@ -1733,8 +5544,14 @@
       <c r="C81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1024</v>
+      </c>
+      <c r="E81">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1370356882645</v>
       </c>
@@ -1745,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1370356882645</v>
       </c>
@@ -1756,7 +5573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1370356882677</v>
       </c>
@@ -1767,7 +5584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1370356882677</v>
       </c>
@@ -1778,7 +5595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1370356882709</v>
       </c>
@@ -1789,7 +5606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1370356882709</v>
       </c>
@@ -1800,7 +5617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1370356882741</v>
       </c>
@@ -1811,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1370356882741</v>
       </c>
@@ -1822,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1370356882773</v>
       </c>
@@ -1833,7 +5650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1370356882773</v>
       </c>
@@ -1844,7 +5661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1370356883941</v>
       </c>
@@ -1855,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1370356883941</v>
       </c>
@@ -1866,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1370356883973</v>
       </c>
@@ -1877,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1370356883973</v>
       </c>
@@ -1888,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1370356884005</v>
       </c>
@@ -7194,67 +11011,31 @@
       <c r="A578">
         <v>1370357014596</v>
       </c>
-      <c r="B578">
-        <v>785</v>
-      </c>
-      <c r="C578">
-        <v>1342</v>
-      </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1370357014596</v>
       </c>
-      <c r="B579">
-        <v>785</v>
-      </c>
-      <c r="C579">
-        <v>1342</v>
-      </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1370357014659</v>
       </c>
-      <c r="B580">
-        <v>709</v>
-      </c>
-      <c r="C580">
-        <v>824</v>
-      </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1370357014659</v>
       </c>
-      <c r="B581">
-        <v>709</v>
-      </c>
-      <c r="C581">
-        <v>824</v>
-      </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1370357014692</v>
       </c>
-      <c r="B582">
-        <v>712</v>
-      </c>
-      <c r="C582">
-        <v>833</v>
-      </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1370357014692</v>
       </c>
-      <c r="B583">
-        <v>712</v>
-      </c>
-      <c r="C583">
-        <v>833</v>
-      </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
@@ -7346,5 +11127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>